--- a/WorkR/team_project/최저생계비.xlsx
+++ b/WorkR/team_project/최저생계비.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\5_project\이윤지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yunji\WorkR\team_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AE0252F-97E5-4795-9166-733F52C69D7D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C082547F-720A-401D-BF65-891061A83A51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="10590" xr2:uid="{EF968A30-1AC8-461C-B95F-7A7C8CB91860}"/>
   </bookViews>
@@ -25,9 +25,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>=</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>구분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7인가구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액(월/원)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,6 +67,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="#,##0;[Red]#,##0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,8 +109,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,15 +430,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48A7C2FD-17E2-4F62-80C2-0CBEEC82774A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>512102</v>
+      </c>
+      <c r="C2" s="1">
+        <v>871958</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1128010</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1384061</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1640112</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1896163</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2152214</v>
       </c>
     </row>
   </sheetData>
